--- a/DateBase/orders/Dang Nguyen_2025-8-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-4.xlsx
@@ -1038,6 +1038,9 @@
       <c r="G2" t="str">
         <v>0151113159115551820101052055510111714157101085810855101318121510202020101015151012205821010520571210101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
